--- a/rregullime.xlsx
+++ b/rregullime.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055FC47E-DE03-4916-8944-2CC5A9D3A9AF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A80EFB-3BA2-4F6D-8D6D-362AF82BE382}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,9 +15,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -25,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>MVC</t>
   </si>
@@ -85,13 +83,40 @@
   </si>
   <si>
     <t>Nuk ka konstatime detyra duket ne rregull</t>
+  </si>
+  <si>
+    <t>data e skadence ne db ruhet DateTime. Duhet te ruhet thjesht Date</t>
+  </si>
+  <si>
+    <t>nese me copy-paste arrij te fus nje vlere jonumerike tek cmimi atehere gjenerohet nje gabim. Mbase parse ne numer nuk duhet bere ne onchange por LostFocus apo validate</t>
+  </si>
+  <si>
+    <t>edhe kur artikulli modifikohet, dritarja te pastrohet</t>
+  </si>
+  <si>
+    <t>nese nuk zgjedhim Tipin dhe klikojme Ruaj, veprimi nuk ruhet dhe te dhenat pastrohen keshtu qe duhet te fillojme nga e para. Mbase validimi per Tipin duhet bere para se te Submit-et ruajtja</t>
+  </si>
+  <si>
+    <t>Butoni te jete Dil kur ndohesh tek Kerko, dhe Artikull Ri kur ndodhesh tek Ruaj</t>
+  </si>
+  <si>
+    <t>Ajax</t>
+  </si>
+  <si>
+    <t>ne  rastin e modfikimi butoni Artikull I Ri nuk funksionon</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>jok</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,13 +124,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -120,9 +185,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,16 +532,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -533,75 +603,199 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="A12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" t="s">
-        <v>10</v>
+      <c r="A13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" t="s">
-        <v>11</v>
+      <c r="A14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" t="s">
-        <v>17</v>
+      <c r="A21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" t="s">
-        <v>18</v>
-      </c>
+      <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="4"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="4"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="4"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>